--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kane Stuart Williamson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3162</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>20/08/2010</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3168</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3204</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3264</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3279</t>
+          <t>3279</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3281</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1268,7 +1332,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3340</t>
+          <t>3340</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3342</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3345</t>
+          <t>3345</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3366</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3368</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3370</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3388</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1992,7 +2055,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2144,7 +2206,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -2152,7 +2213,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2204,7 +2265,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2256,7 +2317,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2369,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2889,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2880,7 +2941,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2932,7 +2993,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2984,7 +3045,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3036,7 +3097,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3088,7 +3149,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3140,7 +3201,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3253,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3296,7 +3357,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3348,7 +3409,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3400,7 +3461,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3452,7 +3513,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3504,7 +3565,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3556,7 +3617,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3608,7 +3669,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3660,7 +3721,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3712,7 +3773,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3764,7 +3825,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3816,7 +3877,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3868,7 +3929,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3920,7 +3981,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3972,7 +4033,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4024,7 +4085,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4076,7 +4137,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4128,7 +4189,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4180,7 +4241,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4232,7 +4293,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4284,7 +4345,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4336,7 +4397,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4388,7 +4449,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4440,7 +4501,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4492,7 +4553,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4544,7 +4605,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4596,7 +4657,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3823</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4636,7 +4697,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>04/08/2015</t>
@@ -4644,7 +4704,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3824</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4696,7 +4756,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3825</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4748,7 +4808,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4800,7 +4860,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4852,7 +4912,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4904,7 +4964,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4956,7 +5016,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5008,7 +5068,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5060,7 +5120,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5112,7 +5172,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5164,7 +5224,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5216,7 +5276,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5268,7 +5328,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5320,7 +5380,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5372,7 +5432,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5424,7 +5484,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5476,7 +5536,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5528,7 +5588,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5580,7 +5640,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5632,7 +5692,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5684,7 +5744,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5736,7 +5796,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5788,7 +5848,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5840,7 +5900,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5892,7 +5952,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5944,7 +6004,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5996,7 +6056,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6048,7 +6108,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6100,7 +6160,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6152,7 +6212,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6204,7 +6264,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6256,7 +6316,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6308,7 +6368,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6360,7 +6420,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6412,7 +6472,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6464,7 +6524,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6516,7 +6576,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6568,7 +6628,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6620,7 +6680,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6672,7 +6732,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6724,7 +6784,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6776,7 +6836,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6828,7 +6888,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6880,7 +6940,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6932,7 +6992,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6984,7 +7044,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7036,7 +7096,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7088,7 +7148,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7140,7 +7200,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7192,7 +7252,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7244,7 +7304,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7296,7 +7356,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7348,7 +7408,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7400,7 +7460,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7452,7 +7512,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7504,7 +7564,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7556,7 +7616,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7608,7 +7668,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7660,7 +7720,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7700,7 +7760,6 @@
           <t>140</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -7708,7 +7767,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7760,7 +7819,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7812,7 +7871,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7864,7 +7923,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7916,7 +7975,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7968,7 +8027,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8020,7 +8079,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8072,7 +8131,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8124,7 +8183,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8176,7 +8235,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8228,7 +8287,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8280,7 +8339,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8332,7 +8391,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8384,7 +8443,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8436,7 +8495,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8488,7 +8547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8540,7 +8599,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8580,7 +8639,6 @@
           <t>157</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -8588,7 +8646,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8640,7 +8698,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8692,7 +8750,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8744,7 +8802,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8796,7 +8854,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8835,7 +8893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8857,7 +8915,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8894,7 +8952,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8931,7 +8989,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3162</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8968,7 +9026,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3168</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9005,7 +9063,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9042,7 +9100,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9079,7 +9137,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3204</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9116,7 +9174,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9153,7 +9211,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3264</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9190,7 +9248,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9227,7 +9285,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3342</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9264,7 +9322,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3368</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9301,7 +9359,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3370</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9338,7 +9396,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -9375,7 +9433,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9412,7 +9470,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9449,7 +9507,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9486,7 +9544,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -9523,7 +9581,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9560,7 +9618,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9597,7 +9655,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9634,7 +9692,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9671,7 +9729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9708,7 +9766,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9745,7 +9803,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9782,7 +9840,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9819,7 +9877,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9856,7 +9914,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9893,7 +9951,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -9930,7 +9988,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -9967,7 +10025,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10004,7 +10062,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -10041,7 +10099,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -10078,7 +10136,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -10115,7 +10173,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -10152,7 +10210,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -10189,7 +10247,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -10226,7 +10284,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -10263,7 +10321,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -10300,7 +10358,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -10337,7 +10395,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -10374,7 +10432,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10411,7 +10469,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10448,7 +10506,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10485,7 +10543,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10522,7 +10580,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3823</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10559,7 +10617,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3824</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10596,7 +10654,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3825</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10633,7 +10691,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10670,7 +10728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10707,7 +10765,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10744,7 +10802,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10781,7 +10839,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10818,7 +10876,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10855,7 +10913,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10892,7 +10950,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10929,7 +10987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10966,7 +11024,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11003,7 +11061,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11040,7 +11098,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11077,7 +11135,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11114,7 +11172,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11151,7 +11209,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11188,7 +11246,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11225,7 +11283,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11262,7 +11320,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11288,6 +11346,527 @@
       <c r="G66" t="inlineStr">
         <is>
           <t>1/25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.66%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.27%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.48%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.33%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.89%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.73%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11.16%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.42%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.57%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11466,407 +11467,650 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.48%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.33%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.89%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.73%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11.16%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.42%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.57%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3825</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.48%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
+          <t>3971</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.33%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10.16%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.89%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.73%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>11.16%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30.42%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4686</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>32.57%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -674,7 +673,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2219,7 +2218,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -8652,7 +8651,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -11467,6 +11466,10 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11479,6 +11482,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11521,6 +11528,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11533,6 +11544,10 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11545,6 +11560,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11647,6 +11666,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11749,6 +11772,10 @@
           <t>4673</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11774,6 +11801,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11786,6 +11814,10 @@
           <t>4686</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11828,289 +11860,13 @@
           <t>4690</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3824</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3825</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3868</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3872</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3879</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3886</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3968</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3970</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3971</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3988</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3992</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3995</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3999</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4039</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4110</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3817.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>20/08/2010</t>
@@ -1332,6 +1332,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -2055,6 +2056,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -2206,6 +2208,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -4697,6 +4700,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>04/08/2015</t>
@@ -7760,6 +7764,7 @@
           <t>140</t>
         </is>
       </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -8639,6 +8644,7 @@
           <t>157</t>
         </is>
       </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -11352,525 +11358,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>45.66%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>43.27%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.48%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.33%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10.16%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.89%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.73%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>11.16%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30.42%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>32.57%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>